--- a/Testfälle.xlsx
+++ b/Testfälle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco.EU\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_new\htdocs\m307\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEE6B9F9-6078-4EB7-9C01-6B9625DCB024}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF8AA6C-243E-43CC-8EC7-0BFBD5D83324}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20040" yWindow="4530" windowWidth="38700" windowHeight="15435" xr2:uid="{A2FB28CD-2235-4FB6-BAE8-1DA4E9FFCEC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2FB28CD-2235-4FB6-BAE8-1DA4E9FFCEC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Testfälle" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Testfälle</t>
   </si>
@@ -43,13 +43,100 @@
   </si>
   <si>
     <t>Wie ist das Resultat?</t>
+  </si>
+  <si>
+    <t>optisch, klick auf button</t>
+  </si>
+  <si>
+    <t>js, klick auf Button (+)</t>
+  </si>
+  <si>
+    <t>Titel im Modal</t>
+  </si>
+  <si>
+    <t>"Gerät erfassen"</t>
+  </si>
+  <si>
+    <t>Bei Neu Inputfelder vorhanden?</t>
+  </si>
+  <si>
+    <t>Inputfelder werden angezeigt</t>
+  </si>
+  <si>
+    <t>Werden inputfelder abgefüllt, wenn auf edit geklickt</t>
+  </si>
+  <si>
+    <t>js, klick auf Stift</t>
+  </si>
+  <si>
+    <t>optisch, klick auf stift</t>
+  </si>
+  <si>
+    <t>Felder werden abgefüllt</t>
+  </si>
+  <si>
+    <t>Required Felder müssen ausgefüllt sein</t>
+  </si>
+  <si>
+    <t>optisch, bei submitversuch</t>
+  </si>
+  <si>
+    <t>Submit wird verhindert</t>
+  </si>
+  <si>
+    <t>Required Felder müssen min 3 und max 255 Zeichen lang sein</t>
+  </si>
+  <si>
+    <t>php</t>
+  </si>
+  <si>
+    <t>html. mit Flag "Required"</t>
+  </si>
+  <si>
+    <t>optisch, bei klick auf "Speichern"</t>
+  </si>
+  <si>
+    <t>Fehlermeldung mit richtiger Fehlermeldung</t>
+  </si>
+  <si>
+    <t>js, sweetalert2</t>
+  </si>
+  <si>
+    <t>optisch, bei klick auf Abfalleimer</t>
+  </si>
+  <si>
+    <t>Wird die "Lösch-Abfrage" angezeigt?</t>
+  </si>
+  <si>
+    <t>Abfrage erscheint</t>
+  </si>
+  <si>
+    <t>Bei Nein (Löschabfrage) soll der Datensatz bestehen bleiben</t>
+  </si>
+  <si>
+    <t>optisch, bei klick auf "Nein"</t>
+  </si>
+  <si>
+    <t>Datensatz bleibt bestehen</t>
+  </si>
+  <si>
+    <t>Datensatz beleibt bestehen</t>
+  </si>
+  <si>
+    <t>Bei Ja (Löschabfrage) soll der Datensatz gelöscht werden</t>
+  </si>
+  <si>
+    <t>optisch, bei klick auf "Ja"</t>
+  </si>
+  <si>
+    <t>Datensatz wird gelöscht</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +173,12 @@
       <color theme="1"/>
       <name val="Quicksand"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Quicksand"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,17 +210,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -443,57 +542,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66910202-4C73-41D7-9631-9C306A97CEFD}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" style="3" customWidth="1"/>
     <col min="6" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="1.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:9" ht="15">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.5">
+      <c r="A7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.5">
+      <c r="A9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.5">
+      <c r="A10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="7"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="7"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="7"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="7"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="7"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="7"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="7"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="7"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="7"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="7"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="7"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="7"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="7"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="7"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Der Titel des Arbeitsblatts befindet sich in dieser Zelle." sqref="A1" xr:uid="{08365538-66E5-4CE6-B6F7-8F827043218A}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
